--- a/SeleniumSessionWithMaven/target/test-classes/AppTest.xlsx
+++ b/SeleniumSessionWithMaven/target/test-classes/AppTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\20thDec_Workspace\SeleniumSessionWithMaven\src\test\resources\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>url</t>
   </si>
@@ -123,13 +123,17 @@
   </si>
   <si>
     <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,10 +521,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="63.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -600,8 +604,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.21875" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="53.6640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="4" width="45.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="53.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
@@ -660,11 +664,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="61.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="42.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -700,7 +704,12 @@
       <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
